--- a/forecast_summary_B079NYQQJJ.xlsx
+++ b/forecast_summary_B079NYQQJJ.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>124.5799944521249</v>
       </c>
       <c r="D2" t="n">
-        <v>165.9472103388445</v>
+        <v>169.7484022022432</v>
       </c>
       <c r="E2" t="n">
         <v>2</v>
@@ -511,6 +516,9 @@
         <is>
           <t>GA-A320M-S2H</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>213.974253302801</v>
       </c>
       <c r="D3" t="n">
-        <v>256.3702779932892</v>
+        <v>254.6011936927167</v>
       </c>
       <c r="E3" t="n">
         <v>2</v>
@@ -547,6 +555,9 @@
         <is>
           <t>GA-A320M-S2H</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>191.5210974719207</v>
       </c>
       <c r="D4" t="n">
-        <v>232.4863024062782</v>
+        <v>232.285458740727</v>
       </c>
       <c r="E4" t="n">
         <v>2</v>
@@ -583,6 +594,9 @@
         <is>
           <t>GA-A320M-S2H</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>41.14821084561796</v>
       </c>
       <c r="D5" t="n">
-        <v>84.41956957945727</v>
+        <v>82.45079552881442</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -619,6 +633,9 @@
         <is>
           <t>GA-A320M-S2H</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>-140.5702787373832</v>
       </c>
       <c r="D6" t="n">
-        <v>-95.20253198568173</v>
+        <v>-100.4461960182997</v>
       </c>
       <c r="E6" t="n">
         <v>2</v>
@@ -655,6 +672,9 @@
         <is>
           <t>GA-A320M-S2H</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>-225.7893163852011</v>
       </c>
       <c r="D7" t="n">
-        <v>-182.8478917202432</v>
+        <v>-185.9902052169073</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -691,6 +711,9 @@
         <is>
           <t>GA-A320M-S2H</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>-173.1264954218496</v>
       </c>
       <c r="D8" t="n">
-        <v>-130.0965099580682</v>
+        <v>-131.8657203051884</v>
       </c>
       <c r="E8" t="n">
         <v>3</v>
@@ -727,6 +750,9 @@
         <is>
           <t>GA-A320M-S2H</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>-59.81846305018662</v>
       </c>
       <c r="D9" t="n">
-        <v>-18.39406575568524</v>
+        <v>-21.30772369659666</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -763,6 +789,9 @@
         <is>
           <t>GA-A320M-S2H</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>3.618755597846263</v>
       </c>
       <c r="D10" t="n">
-        <v>44.71085409119779</v>
+        <v>45.81573618598303</v>
       </c>
       <c r="E10" t="n">
         <v>3</v>
@@ -799,6 +828,9 @@
         <is>
           <t>GA-A320M-S2H</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>-17.90212152880309</v>
       </c>
       <c r="D11" t="n">
-        <v>22.83707622375988</v>
+        <v>23.78355723700802</v>
       </c>
       <c r="E11" t="n">
         <v>3</v>
@@ -835,6 +867,9 @@
         <is>
           <t>GA-A320M-S2H</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>-65.94639112352944</v>
       </c>
       <c r="D12" t="n">
-        <v>-25.70795624725445</v>
+        <v>-25.88168310249053</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -871,6 +906,9 @@
         <is>
           <t>GA-A320M-S2H</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>-68.97636534989857</v>
       </c>
       <c r="D13" t="n">
-        <v>-28.19160699811656</v>
+        <v>-29.53489149417285</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -907,6 +945,9 @@
         <is>
           <t>GA-A320M-S2H</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>-22.08784497823347</v>
       </c>
       <c r="D14" t="n">
-        <v>20.19240007808259</v>
+        <v>19.61510393802872</v>
       </c>
       <c r="E14" t="n">
         <v>3</v>
@@ -943,6 +984,9 @@
         <is>
           <t>GA-A320M-S2H</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -950,13 +994,13 @@
         <v>45718</v>
       </c>
       <c r="B15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="n">
         <v>20.4707647347924</v>
       </c>
       <c r="D15" t="n">
-        <v>63.91829835003731</v>
+        <v>60.66408670702896</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>GA-A320M-S2H</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>18.0442518943404</v>
       </c>
       <c r="D16" t="n">
-        <v>61.38386483390607</v>
+        <v>61.14591170618413</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>GA-A320M-S2H</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>-11.57617691803412</v>
       </c>
       <c r="D17" t="n">
-        <v>32.91698832875824</v>
+        <v>24.68408897305701</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>GA-A320M-S2H</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>-23.30974833161069</v>
       </c>
       <c r="D18" t="n">
-        <v>15.28275235620351</v>
+        <v>16.75752278435679</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>GA-A320M-S2H</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>-3.746608829711446</v>
       </c>
       <c r="D19" t="n">
-        <v>39.88827963543152</v>
+        <v>39.82380447976613</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>GA-A320M-S2H</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>17.56238637850299</v>
       </c>
       <c r="D20" t="n">
-        <v>58.10388654892005</v>
+        <v>58.56968115976242</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>GA-A320M-S2H</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>12.21703739011727</v>
       </c>
       <c r="D21" t="n">
-        <v>53.5237149733958</v>
+        <v>53.88294484609079</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>GA-A320M-S2H</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1385,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>643</t>
+          <t>642</t>
         </is>
       </c>
     </row>
